--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Workspace\AutomationFrameWork_ToolsQA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB508BE-B1A1-40D1-A86C-6385867DC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048D7DFF-8F25-44A0-BE22-0B30F5F5DFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>*HTR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Ramachandran</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +76,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,15 +121,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,20 +413,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,53 +438,53 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>63744</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>63744</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C5FBB60C-91C5-4ABE-97A6-782A7CE50F19}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{24CD2F33-5B96-46A7-BCD7-4B436E40AEDA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>